--- a/genshin/472239398022817874_2020-12-24_14-10-03.xlsx
+++ b/genshin/472239398022817874_2020-12-24_14-10-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>3977080787</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-01-20 21:28:19</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44216.89466435185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>3895767117</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-01-01 16:51:59</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44197.70276620371</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -677,10 +689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-31 12:17:45</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44196.51232638889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -744,10 +754,8 @@
           <t>3881311822</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-29 07:09:57</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44194.29857638889</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -815,10 +823,8 @@
           <t>3866635071</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-28 18:55:31</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44193.78855324074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -886,10 +892,8 @@
           <t>3866192717</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-28 16:56:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44193.705625</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -953,10 +957,8 @@
           <t>3866192717</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-12-28 16:28:48</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44193.68666666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1016,10 +1018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-12-28 15:17:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44193.63738425926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1088,10 +1088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-12-28 15:17:46</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44193.63733796297</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1165,10 +1163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-12-28 10:32:40</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44193.43935185186</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1236,10 +1232,8 @@
           <t>3877945553</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-12-28 10:10:40</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44193.42407407407</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1315,10 +1309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-12-28 00:44:40</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44193.03101851852</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1390,10 +1382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-12-27 23:59:05</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44192.99936342592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1468,10 +1458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-12-27 21:31:24</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44192.89680555555</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1544,10 +1532,8 @@
           <t>3875275787</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-12-27 16:33:39</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44192.69003472223</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1623,10 +1609,8 @@
           <t>3875105775</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-12-27 15:44:30</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44192.65590277778</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1702,10 +1686,8 @@
           <t>3874973565</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-12-27 15:04:58</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44192.62844907407</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1782,10 +1764,8 @@
           <t>3874895026</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-12-27 14:38:33</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44192.61010416667</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1853,10 +1833,8 @@
           <t>3874358102</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-12-27 12:16:23</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44192.51137731481</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1925,10 +1903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-12-27 12:12:37</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44192.50876157408</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1997,10 +1973,8 @@
           <t>3866063898</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-12-27 11:53:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44192.49581018519</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2072,10 +2046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-12-27 10:20:33</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44192.4309375</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2143,10 +2115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-12-27 09:50:32</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44192.4100925926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2210,10 +2180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-12-27 00:29:12</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44192.02027777778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2322,10 +2290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-12-26 23:37:41</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44191.98450231482</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2389,10 +2355,8 @@
           <t>3866063898</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-12-26 21:57:34</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44191.91497685185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2473,10 +2437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-12-26 19:06:30</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44191.79618055555</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2544,10 +2506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-12-26 18:35:35</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44191.77471064815</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2615,10 +2575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-12-26 17:37:26</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44191.7343287037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2694,10 +2652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-12-26 17:19:27</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44191.72184027778</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2765,10 +2721,8 @@
           <t>3871056708</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-12-26 16:46:31</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44191.6989699074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2836,10 +2790,8 @@
           <t>3870994327</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-12-26 16:30:00</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44191.6875</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2899,10 +2851,8 @@
           <t>3864534763</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-12-26 15:33:13</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44191.64806712963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2975,10 +2925,8 @@
           <t>3870620881</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-12-26 14:27:11</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44191.60221064815</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3042,10 +2990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-12-26 13:23:44</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44191.55814814815</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3122,10 +3068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-12-26 12:49:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44191.5340625</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3189,10 +3133,8 @@
           <t>3869929963</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-12-26 12:33:26</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44191.52321759259</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3252,10 +3194,8 @@
           <t>3864534763</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-12-26 12:29:17</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44191.52033564815</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3319,10 +3259,8 @@
           <t>3870196057</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-12-26 12:28:33</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44191.51982638889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3386,10 +3324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-12-26 12:22:19</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44191.51549768518</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3457,10 +3393,8 @@
           <t>3869929963</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-12-26 11:19:41</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44191.47200231482</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3520,10 +3454,8 @@
           <t>3869834200</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-12-26 10:50:13</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44191.45153935185</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3599,10 +3531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-12-26 10:47:18</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44191.44951388889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3678,10 +3608,8 @@
           <t>3866063898</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-12-26 05:42:04</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44191.2375462963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3754,10 +3682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-12-26 05:11:36</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44191.21638888889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3842,10 +3768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-12-26 03:53:46</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44191.16233796296</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3913,10 +3837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-12-26 03:13:12</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44191.13416666666</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3981,10 +3903,8 @@
           <t>3869171602</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-12-26 02:15:53</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44191.09436342592</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4060,10 +3980,8 @@
           <t>3869055820</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-12-26 01:15:55</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44191.05271990741</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4139,10 +4057,8 @@
           <t>3869029193</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-12-26 01:08:32</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44191.04759259259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4202,10 +4118,8 @@
           <t>3868979374</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-12-26 00:53:47</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44191.03734953704</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4269,10 +4183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-12-26 00:53:16</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44191.03699074074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4362,10 +4274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-12-26 00:41:37</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44191.02890046296</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4441,10 +4351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-12-26 00:24:30</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44191.01701388889</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4516,10 +4424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-12-26 00:19:29</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44191.01353009259</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4583,10 +4489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-12-25 23:04:07</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44190.96119212963</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4658,10 +4562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-12-25 22:45:24</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44190.94819444444</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4729,10 +4631,8 @@
           <t>3868276741</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-12-25 22:15:41</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44190.92755787037</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4800,10 +4700,8 @@
           <t>3868267627</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-12-25 22:14:41</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44190.92686342593</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4871,10 +4769,8 @@
           <t>3866635071</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-12-25 22:13:32</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44190.92606481481</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4942,10 +4838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-12-25 21:41:48</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44190.90402777777</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5015,10 +4909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-12-25 19:29:14</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44190.81196759259</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5090,10 +4982,8 @@
           <t>3862719741</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-12-25 19:04:43</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44190.79494212963</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5154,10 +5044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-12-25 18:50:23</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44190.78498842593</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5229,10 +5117,8 @@
           <t>3867294185</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-12-25 18:37:53</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44190.77630787037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5300,10 +5186,8 @@
           <t>3867212033</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-12-25 18:19:05</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44190.76325231481</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5380,10 +5264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-12-25 17:40:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44190.73662037037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5451,10 +5333,8 @@
           <t>3866974123</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-12-25 17:21:17</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44190.72311342593</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5516,10 +5396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-12-25 16:41:56</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44190.69578703704</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5595,10 +5473,8 @@
           <t>3866762917</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-12-25 16:16:11</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44190.67790509259</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5658,10 +5534,8 @@
           <t>3866761902</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-12-25 16:15:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44190.67719907407</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5733,10 +5607,8 @@
           <t>3866658064</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-12-25 15:39:59</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44190.6527662037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5804,10 +5676,8 @@
           <t>3866635071</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-12-25 15:32:14</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44190.64738425926</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5871,10 +5741,8 @@
           <t>3866635071</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-12-25 15:31:34</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44190.6469212963</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5942,10 +5810,8 @@
           <t>3866618365</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-12-25 15:25:55</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44190.64299768519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6021,10 +5887,8 @@
           <t>3866459839</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-12-25 14:30:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44190.60450231482</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6093,10 +5957,8 @@
           <t>3866462116</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-12-25 14:27:49</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44190.60265046296</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6156,10 +6018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-12-25 14:01:09</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44190.58413194444</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6227,10 +6087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:55:21</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44190.58010416666</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6298,10 +6156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:35:20</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44190.5662037037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6369,10 +6225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:15:05</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44190.55214120371</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6436,10 +6290,8 @@
           <t>3862631077</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:12:36</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44190.55041666667</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6503,10 +6355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:10:49</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44190.54917824074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6579,10 +6429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:08:24</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44190.5475</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6646,10 +6494,8 @@
           <t>3866220667</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:07:25</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44190.54681712963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6713,10 +6559,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:03:27</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44190.5440625</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6780,10 +6624,8 @@
           <t>3866192717</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-12-25 13:01:05</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44190.54241898148</v>
       </c>
       <c r="I88" t="n">
         <v>5</v>
@@ -6847,10 +6689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:55:34</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44190.53858796296</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6918,10 +6758,8 @@
           <t>3866155112</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:51:27</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44190.53572916667</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6988,10 +6826,8 @@
           <t>3866063898</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:30:57</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44190.52149305555</v>
       </c>
       <c r="I91" t="n">
         <v>20</v>
@@ -7055,10 +6891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:24:10</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44190.51678240741</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7130,10 +6964,8 @@
           <t>3864534763</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:12:32</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44190.5087037037</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7206,10 +7038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:10:45</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44190.50746527778</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7285,10 +7115,8 @@
           <t>3864534763</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:10:14</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44190.50710648148</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7360,10 +7188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:06:14</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44190.5043287037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7431,10 +7257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-12-25 12:00:39</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44190.50045138889</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7498,10 +7322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-12-25 11:38:11</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44190.48484953704</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7565,10 +7387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-12-25 11:34:47</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44190.48248842593</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7644,10 +7464,8 @@
           <t>3865842767</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-12-25 11:29:09</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44190.47857638889</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7723,10 +7541,8 @@
           <t>3865400993</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-12-25 11:17:34</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44190.47053240741</v>
       </c>
       <c r="I101" t="n">
         <v>11</v>
@@ -7805,10 +7621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-12-25 11:15:29</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44190.46908564815</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7883,10 +7697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:52:03</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44190.4528125</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7958,10 +7770,8 @@
           <t>3865737101</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:50:39</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44190.45184027778</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8025,10 +7835,8 @@
           <t>3865711431</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:39:24</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44190.44402777778</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8092,10 +7900,8 @@
           <t>3865711162</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:39:07</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44190.44383101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8163,10 +7969,8 @@
           <t>3865702244</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:39:02</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44190.44377314814</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8230,10 +8034,8 @@
           <t>3865706416</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:38:37</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44190.4434837963</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8297,10 +8099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:37:23</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44190.44262731481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8368,10 +8168,8 @@
           <t>3865645261</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-12-25 10:13:01</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44190.42570601852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8443,10 +8241,8 @@
           <t>3865590047</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-12-25 09:50:26</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44190.41002314815</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8516,10 +8312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-12-25 09:25:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44190.39269675926</v>
       </c>
       <c r="I112" t="n">
         <v>8</v>
@@ -8583,10 +8377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-12-25 09:19:47</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44190.38873842593</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8650,10 +8442,8 @@
           <t>3864511637</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-12-25 09:00:20</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44190.37523148148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8721,10 +8511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-12-25 09:00:10</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44190.37511574074</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8796,10 +8584,8 @@
           <t>3865450853</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-12-25 08:44:44</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44190.36439814815</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8867,10 +8653,8 @@
           <t>3865415086</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-12-25 08:25:56</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44190.35134259259</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8942,10 +8726,8 @@
           <t>3865399544</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-12-25 08:24:55</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44190.35063657408</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9017,10 +8799,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-12-25 08:22:31</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44190.34896990741</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9096,10 +8876,8 @@
           <t>3865400993</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-12-25 08:18:20</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44190.34606481482</v>
       </c>
       <c r="I120" t="n">
         <v>4</v>
@@ -9180,10 +8958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-12-25 08:17:42</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44190.345625</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -9255,10 +9031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-12-25 07:51:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44190.32716435185</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9330,10 +9104,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-12-25 07:45:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44190.32309027778</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9397,10 +9169,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-12-25 07:44:14</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44190.32238425926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9464,10 +9234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-12-25 07:35:34</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44190.31636574074</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -9535,10 +9303,8 @@
           <t>3865282797</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-12-25 06:39:41</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44190.27755787037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9613,10 +9379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-12-25 06:04:45</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44190.25329861111</v>
       </c>
       <c r="I127" t="n">
         <v>4</v>
@@ -9684,10 +9448,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-12-25 05:09:13</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44190.2147337963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9763,10 +9525,8 @@
           <t>3865202549</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-12-25 04:03:35</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44190.16915509259</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9834,10 +9594,8 @@
           <t>3865199791</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-12-25 03:56:56</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44190.16453703704</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9913,10 +9671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-12-25 03:30:54</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44190.14645833334</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9989,10 +9745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-12-25 03:29:15</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44190.1453125</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10056,10 +9810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-12-25 03:12:38</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44190.13377314815</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10123,10 +9875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-12-25 02:58:39</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44190.1240625</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10198,10 +9948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:58:31</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44190.08230324074</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10277,10 +10025,8 @@
           <t>3865081349</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:54:10</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44190.07928240741</v>
       </c>
       <c r="I136" t="n">
         <v>2</v>
@@ -10344,10 +10090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:51:21</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44190.07732638889</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10419,10 +10163,8 @@
           <t>3865067595</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:48:09</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44190.07510416667</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10490,10 +10232,8 @@
           <t>3865058884</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:47:19</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44190.07452546297</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10561,10 +10301,8 @@
           <t>3865047397</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:38:44</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44190.06856481481</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10665,10 +10403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:31:20</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44190.06342592592</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10732,10 +10468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:27:00</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44190.06041666667</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10811,10 +10545,8 @@
           <t>3864980615</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:08:16</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44190.04740740741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10886,10 +10618,8 @@
           <t>3864978249</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:07:46</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44190.04706018518</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10961,10 +10691,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-12-25 01:07:34</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44190.0469212963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11032,10 +10760,8 @@
           <t>3863075888</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:59:38</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44190.04141203704</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11107,10 +10833,8 @@
           <t>3862674621</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:58:11</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44190.04040509259</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11182,10 +10906,8 @@
           <t>3862631077</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:55:59</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44190.03887731482</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11249,10 +10971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:52:05</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44190.03616898148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11329,10 +11049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:50:11</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44190.03484953703</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11396,10 +11114,8 @@
           <t>3864931086</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:49:44</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44190.03453703703</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11459,10 +11175,8 @@
           <t>3862848539</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:36:45</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44190.02552083333</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11526,10 +11240,8 @@
           <t>3862696187</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:35:38</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44190.02474537037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11611,10 +11323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:35:24</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44190.02458333333</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11674,10 +11384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:35:00</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44190.02430555555</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11740,10 +11448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:34:43</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44190.02410879629</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11803,10 +11509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:34:39</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44190.0240625</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11866,10 +11570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:34:39</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44190.0240625</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11933,10 +11635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:34:16</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44190.02379629629</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12008,10 +11708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:32:35</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44190.02262731481</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12079,10 +11777,8 @@
           <t>3864872514</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:32:32</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44190.02259259259</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12147,10 +11843,8 @@
           <t>3863075888</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:31:42</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44190.02201388889</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12222,10 +11916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:26:14</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44190.01821759259</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12295,10 +11987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:25:49</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44190.01792824074</v>
       </c>
       <c r="I164" t="n">
         <v>105</v>
@@ -12362,10 +12052,8 @@
           <t>3862873332</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:23:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44190.01659722222</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12438,10 +12126,8 @@
           <t>3864784222</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:10:26</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44190.00724537037</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12505,10 +12191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:05:06</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44190.00354166667</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12568,10 +12252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:04:52</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44190.00337962963</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12638,10 +12320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-12-25 00:04:08</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44190.00287037037</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -12707,10 +12387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:58:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44189.99871527778</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12778,10 +12456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:55:42</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44189.99701388889</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12869,10 +12545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:47:47</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44189.99151620371</v>
       </c>
       <c r="I172" t="n">
         <v>11</v>
@@ -12940,10 +12614,8 @@
           <t>3864678896</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:45:35</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44189.98998842593</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13011,10 +12683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:44:47</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44189.98943287037</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13086,10 +12756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:39:57</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44189.98607638889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13161,10 +12829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:39:09</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44189.98552083333</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13240,10 +12906,8 @@
           <t>3862721005</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:38:56</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44189.98537037037</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13303,10 +12967,8 @@
           <t>3862696187</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:37:29</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44189.98436342592</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13374,10 +13036,8 @@
           <t>3864138492</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:33:37</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44189.98167824074</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13444,10 +13104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:30:41</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44189.9796412037</v>
       </c>
       <c r="I180" t="n">
         <v>77</v>
@@ -13523,10 +13181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:29:43</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44189.97896990741</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13590,10 +13246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:17:35</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44189.97054398148</v>
       </c>
       <c r="I182" t="n">
         <v>5</v>
@@ -13666,10 +13320,8 @@
           <t>3864534763</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:15:36</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44189.96916666667</v>
       </c>
       <c r="I183" t="n">
         <v>7</v>
@@ -13742,10 +13394,8 @@
           <t>3864511637</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:09:40</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44189.9650462963</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13805,10 +13455,8 @@
           <t>3864292921</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:07:54</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44189.96381944444</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13876,10 +13524,8 @@
           <t>3864496741</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:06:49</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44189.96306712963</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13964,10 +13610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-12-24 23:03:11</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44189.96054398148</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14035,10 +13679,8 @@
           <t>3863626916</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:57:07</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44189.95633101852</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14106,10 +13748,8 @@
           <t>3863626916</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:56:23</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44189.95582175926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14177,10 +13817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:54:15</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44189.95434027778</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14240,10 +13878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:52:42</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44189.95326388889</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14315,10 +13951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:50:46</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44189.9519212963</v>
       </c>
       <c r="I192" t="n">
         <v>74</v>
@@ -14388,10 +14022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:50:42</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44189.951875</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14459,10 +14091,8 @@
           <t>3863626916</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:47:22</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44189.94956018519</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14534,10 +14164,8 @@
           <t>3863626916</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:46:42</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44189.94909722222</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14605,10 +14233,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:45:08</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44189.94800925926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14684,10 +14310,8 @@
           <t>3863626916</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:44:04</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44189.94726851852</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14759,10 +14383,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:41:51</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44189.94572916667</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14826,10 +14448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:39:42</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44189.94423611111</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14893,10 +14513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:37:15</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44189.94253472222</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -14968,10 +14586,8 @@
           <t>3864352090</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:37:07</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44189.94244212963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15035,10 +14651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:31:50</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44189.93877314815</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15102,10 +14716,8 @@
           <t>3863437561</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:28:52</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44189.93671296296</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15173,10 +14785,8 @@
           <t>3864292921</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:25:21</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44189.93427083334</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15249,10 +14859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:25:06</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44189.93409722222</v>
       </c>
       <c r="I205" t="n">
         <v>10</v>
@@ -15312,10 +14920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:08:19</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44189.92244212963</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15379,10 +14985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-12-24 22:07:03</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44189.9215625</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15447,10 +15051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:56:22</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44189.91414351852</v>
       </c>
       <c r="I208" t="n">
         <v>10</v>
@@ -15522,10 +15124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:54:05</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44189.91255787037</v>
       </c>
       <c r="I209" t="n">
         <v>141</v>
@@ -15585,10 +15185,8 @@
           <t>3864138492</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:51:55</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44189.91105324074</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15652,10 +15250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:49:21</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44189.90927083333</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15719,10 +15315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:47:33</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44189.90802083333</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -15794,10 +15388,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:46:03</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44189.90697916667</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15861,10 +15453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:43:22</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44189.90511574074</v>
       </c>
       <c r="I214" t="n">
         <v>11</v>
@@ -15936,10 +15526,8 @@
           <t>3864076297</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:37:22</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44189.90094907407</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16007,10 +15595,8 @@
           <t>3864061302</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:34:09</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44189.89871527778</v>
       </c>
       <c r="I216" t="n">
         <v>10</v>
@@ -16070,10 +15656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:33:36</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44189.89833333333</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16168,10 +15752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:30:31</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44189.89619212963</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16243,10 +15825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:30:12</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44189.89597222222</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16314,10 +15894,8 @@
           <t>3862873332</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:29:48</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44189.89569444444</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16377,10 +15955,8 @@
           <t>3862716708</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:28:34</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44189.89483796297</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16452,10 +16028,8 @@
           <t>3864029175</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:27:44</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44189.89425925926</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16519,10 +16093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:27:15</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44189.89392361111</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16590,10 +16162,8 @@
           <t>3863817113</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:19:41</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44189.88866898148</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16661,10 +16231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:14:50</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44189.88530092593</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16728,10 +16296,8 @@
           <t>3863958704</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:11:54</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44189.88326388889</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16791,10 +16357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:05:06</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44189.87854166667</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16858,10 +16422,8 @@
           <t>3863706626</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:01:20</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44189.87592592592</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16933,10 +16495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-12-24 21:01:02</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44189.87571759259</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17008,10 +16568,8 @@
           <t>3863899659</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:58:41</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44189.87408564815</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17079,10 +16637,8 @@
           <t>3863887758</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:53:42</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44189.870625</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17154,10 +16710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:42:31</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44189.8628587963</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17225,10 +16779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:41:36</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44189.86222222223</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17304,10 +16856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:39:57</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44189.86107638889</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17383,10 +16933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:38:08</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44189.85981481482</v>
       </c>
       <c r="I235" t="n">
         <v>39</v>
@@ -17454,10 +17002,8 @@
           <t>3863817113</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:35:47</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44189.85818287037</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17527,10 +17073,8 @@
           <t>3863803281</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:32:57</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44189.85621527778</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17598,10 +17142,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:29:41</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44189.85394675926</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17669,10 +17211,8 @@
           <t>3863437561</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:27:16</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44189.85226851852</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17736,10 +17276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:20:29</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44189.84755787037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17807,10 +17345,8 @@
           <t>3863056491</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:17:15</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44189.8453125</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17878,10 +17414,8 @@
           <t>3863706626</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:08:41</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44189.83936342593</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17957,10 +17491,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:06:43</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44189.83799768519</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18032,10 +17564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:05:39</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44189.83725694445</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18104,10 +17634,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:03:30</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44189.83576388889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18175,10 +17703,8 @@
           <t>3863682575</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-12-24 20:03:05</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44189.83547453704</v>
       </c>
       <c r="I246" t="n">
         <v>10</v>
@@ -18250,10 +17776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:59:48</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44189.83319444444</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18317,10 +17841,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:54:02</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44189.82918981482</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18388,10 +17910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:53:11</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44189.82859953704</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18459,10 +17979,8 @@
           <t>3863468226</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:52:23</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44189.82804398148</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18550,10 +18068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:51:41</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44189.82755787037</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18626,10 +18142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:50:06</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44189.82645833334</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18701,10 +18215,8 @@
           <t>3863626916</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:48:42</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44189.82548611111</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18772,10 +18284,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:46:23</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44189.82387731481</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18843,10 +18353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:46:08</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44189.8237037037</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18910,10 +18418,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:44:20</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44189.8224537037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18989,10 +18495,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:43:34</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44189.82192129629</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19060,10 +18564,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:40:46</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44189.81997685185</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19135,10 +18637,8 @@
           <t>3863595047</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:39:53</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44189.81936342592</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19214,10 +18714,8 @@
           <t>3863437561</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:36:10</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44189.8167824074</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19281,10 +18779,8 @@
           <t>3863570938</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:35:48</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44189.81652777778</v>
       </c>
       <c r="I261" t="n">
         <v>5</v>
@@ -19344,10 +18840,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:35:38</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44189.81641203703</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19423,10 +18917,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:34:52</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44189.81587962963</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19498,10 +18990,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:34:00</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44189.81527777778</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19569,10 +19059,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:32:09</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44189.81399305556</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19648,10 +19136,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:31:04</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44189.81324074074</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19723,10 +19209,8 @@
           <t>3863437561</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:30:39</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44189.81295138889</v>
       </c>
       <c r="I267" t="n">
         <v>5</v>
@@ -19794,10 +19278,8 @@
           <t>3863543116</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:30:20</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44189.81273148148</v>
       </c>
       <c r="I268" t="n">
         <v>5</v>
@@ -19869,10 +19351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:25:35</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44189.80943287037</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19936,10 +19416,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:24:57</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44189.80899305556</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20007,10 +19485,8 @@
           <t>3862873332</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:21:16</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44189.80643518519</v>
       </c>
       <c r="I271" t="n">
         <v>5</v>
@@ -20082,10 +19558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:19:43</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44189.80535879629</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20157,10 +19631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:17:16</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44189.80365740741</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20228,10 +19700,8 @@
           <t>3863254606</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:14:01</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44189.80140046297</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20295,10 +19765,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:13:54</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44189.80131944444</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20362,10 +19830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:13:33</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44189.80107638889</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20441,10 +19907,8 @@
           <t>3863479399</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:13:16</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44189.80087962963</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20508,10 +19972,8 @@
           <t>3863468226</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:12:13</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44189.80015046296</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20575,10 +20037,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:12:03</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44189.80003472222</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20642,10 +20102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:09:17</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44189.79811342592</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -20726,10 +20184,8 @@
           <t>3863463693</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:09:06</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44189.79798611111</v>
       </c>
       <c r="I281" t="n">
         <v>15</v>
@@ -20793,10 +20249,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:06:32</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44189.79620370371</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20860,10 +20314,8 @@
           <t>3863444440</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:05:52</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44189.79574074074</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20923,10 +20375,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:05:41</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44189.79561342593</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21002,10 +20452,8 @@
           <t>3863437561</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:04:26</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44189.79474537037</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21069,10 +20517,8 @@
           <t>3862676301</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-12-24 19:01:10</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44189.79247685185</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21148,10 +20594,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:59:59</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44189.79165509259</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21215,10 +20659,8 @@
           <t>3863042663</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:59:14</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44189.79113425926</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21282,10 +20724,8 @@
           <t>3863417348</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:57:16</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44189.78976851852</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21361,10 +20801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:53:32</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44189.78717592593</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21428,10 +20866,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:52:50</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44189.78668981481</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21507,10 +20943,8 @@
           <t>3863366960</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:46:11</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44189.78207175926</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21582,10 +21016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:45:39</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44189.78170138889</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21650,10 +21082,8 @@
           <t>3862797489</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:41:40</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44189.77893518518</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -21725,10 +21155,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:40:28</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44189.77810185185</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21792,10 +21220,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:37:50</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44189.77627314815</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21859,10 +21285,8 @@
           <t>3863321557</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:35:19</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44189.77452546296</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -21926,10 +21350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:35:07</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44189.77438657408</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21993,10 +21415,8 @@
           <t>3862784308</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:34:40</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44189.77407407408</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22072,10 +21492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:31:22</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44189.77178240741</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22147,10 +21565,8 @@
           <t>3863078954</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:30:30</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44189.77118055556</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22210,10 +21626,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:29:27</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44189.77045138889</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22289,10 +21703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:28:48</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44189.77</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22364,10 +21776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:28:38</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44189.76988425926</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22435,10 +21845,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:28:10</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44189.76956018519</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22502,10 +21910,8 @@
           <t>3863295162</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:27:55</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44189.76938657407</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22581,10 +21987,8 @@
           <t>3863279917</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:27:07</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44189.76883101852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22656,10 +22060,8 @@
           <t>3863282526</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:26:01</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44189.76806712963</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22723,10 +22125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:25:43</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44189.76785879629</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22790,10 +22190,8 @@
           <t>3863269386</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:23:44</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44189.76648148148</v>
       </c>
       <c r="I310" t="n">
         <v>27</v>
@@ -22861,10 +22259,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:22:56</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44189.76592592592</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -22940,10 +22336,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:20:44</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44189.76439814815</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23007,10 +22401,8 @@
           <t>3863254606</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:20:11</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44189.76401620371</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23078,10 +22470,8 @@
           <t>3863244396</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:18:23</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44189.7627662037</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23141,10 +22531,8 @@
           <t>3862674621</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:18:05</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44189.76255787037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23204,10 +22592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:17:54</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44189.76243055556</v>
       </c>
       <c r="I316" t="n">
         <v>222</v>
@@ -23275,10 +22661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:17:52</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44189.7624074074</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23346,10 +22730,8 @@
           <t>3863234839</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:16:02</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44189.76113425926</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23417,10 +22799,8 @@
           <t>3863229030</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:14:27</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44189.76003472223</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23484,10 +22864,8 @@
           <t>3863219031</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:11:49</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44189.75820601852</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23555,10 +22933,8 @@
           <t>3862823372</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:10:59</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44189.75762731482</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23630,10 +23006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:08:30</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44189.75590277778</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23701,10 +23075,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:07:54</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44189.75548611111</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23768,10 +23140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:07:22</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44189.75511574074</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23839,10 +23209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:06:58</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44189.75483796297</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23910,10 +23278,8 @@
           <t>3863197108</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:05:31</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44189.75383101852</v>
       </c>
       <c r="I326" t="n">
         <v>5</v>
@@ -23981,10 +23347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:03:48</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44189.75263888889</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24048,10 +23412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:02:26</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44189.75168981482</v>
       </c>
       <c r="I328" t="n">
         <v>11</v>
@@ -24115,10 +23477,8 @@
           <t>3863078954</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:01:51</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44189.75128472222</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24186,10 +23546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:00:46</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44189.75053240741</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24265,10 +23623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:00:46</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44189.75053240741</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24336,10 +23692,8 @@
           <t>3863180282</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:00:30</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44189.75034722222</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24407,10 +23761,8 @@
           <t>3863169980</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-12-24 18:00:15</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44189.75017361111</v>
       </c>
       <c r="I333" t="n">
         <v>7</v>
@@ -24474,10 +23826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:59:35</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44189.74971064815</v>
       </c>
       <c r="I334" t="n">
         <v>36</v>
@@ -24553,10 +23903,8 @@
           <t>3863176173</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:59:34</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44189.74969907408</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24620,10 +23968,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:59:03</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44189.74934027778</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24687,10 +24033,8 @@
           <t>3863167496</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:58:18</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44189.74881944444</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24750,10 +24094,8 @@
           <t>3863078954</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:57:34</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44189.74831018518</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -24821,10 +24163,8 @@
           <t>3863154672</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:55:58</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44189.74719907407</v>
       </c>
       <c r="I339" t="n">
         <v>2</v>
@@ -24900,10 +24240,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:55:01</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44189.74653935185</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -24979,10 +24317,8 @@
           <t>3863149660</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:54:24</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44189.74611111111</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25050,10 +24386,8 @@
           <t>3863078954</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:54:11</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44189.74596064815</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25113,10 +24447,8 @@
           <t>3863155364</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:53:51</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44189.74572916667</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25184,10 +24516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:52:57</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44189.74510416666</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25255,10 +24585,8 @@
           <t>3862873332</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:52:46</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44189.74497685185</v>
       </c>
       <c r="I345" t="n">
         <v>9</v>
@@ -25326,10 +24654,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:52:42</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44189.74493055556</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25405,10 +24731,8 @@
           <t>3863063472</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:52:28</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44189.74476851852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25476,10 +24800,8 @@
           <t>3863056491</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:51:28</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44189.74407407407</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25539,10 +24861,8 @@
           <t>3862674621</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:50:50</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44189.74363425926</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25610,10 +24930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:48:55</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44189.74230324074</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25689,10 +25007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:45:47</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44189.74012731481</v>
       </c>
       <c r="I351" t="n">
         <v>47</v>
@@ -25760,10 +25076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:45:19</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44189.73980324074</v>
       </c>
       <c r="I352" t="n">
         <v>6</v>
@@ -25831,10 +25145,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:44:30</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44189.73923611111</v>
       </c>
       <c r="I353" t="n">
         <v>5</v>
@@ -25898,10 +25210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:43:37</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44189.73862268519</v>
       </c>
       <c r="I354" t="n">
         <v>9</v>
@@ -25969,10 +25279,8 @@
           <t>3862873332</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:42:55</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44189.73813657407</v>
       </c>
       <c r="I355" t="n">
         <v>5</v>
@@ -26040,10 +25348,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:41:28</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44189.73712962963</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26119,10 +25425,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:41:11</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44189.73693287037</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26186,10 +25490,8 @@
           <t>3863098749</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:40:21</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44189.73635416666</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26257,10 +25559,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:38:54</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44189.73534722222</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
@@ -26328,10 +25628,8 @@
           <t>3863089959</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:38:31</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44189.73508101852</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26407,10 +25705,8 @@
           <t>3863096047</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:38:06</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44189.73479166667</v>
       </c>
       <c r="I361" t="n">
         <v>4</v>
@@ -26474,10 +25770,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:35:56</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44189.73328703704</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -26545,10 +25839,8 @@
           <t>3863056491</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:35:28</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44189.73296296296</v>
       </c>
       <c r="I363" t="n">
         <v>4</v>
@@ -26608,10 +25900,8 @@
           <t>3863078954</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:34:39</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44189.73239583334</v>
       </c>
       <c r="I364" t="n">
         <v>2</v>
@@ -26679,10 +25969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:32:51</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44189.73114583334</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26750,10 +26038,8 @@
           <t>3863072349</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:32:09</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44189.73065972222</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26817,10 +26103,8 @@
           <t>3863075888</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:32:02</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44189.7305787037</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -26884,10 +26168,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:30:41</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44189.7296412037</v>
       </c>
       <c r="I368" t="n">
         <v>9</v>
@@ -26963,10 +26245,8 @@
           <t>3863063472</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:29:56</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44189.72912037037</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27030,10 +26310,8 @@
           <t>3862823372</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:29:14</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44189.72863425926</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27097,10 +26375,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:28:09</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44189.72788194445</v>
       </c>
       <c r="I371" t="n">
         <v>9</v>
@@ -27168,10 +26444,8 @@
           <t>3863056491</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:27:13</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44189.72723379629</v>
       </c>
       <c r="I372" t="n">
         <v>5</v>
@@ -27235,10 +26509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:26:56</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44189.72703703704</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27306,10 +26578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:26:11</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44189.7265162037</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27378,10 +26648,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:25:08</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44189.72578703704</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27453,10 +26721,8 @@
           <t>3863043043</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:24:12</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44189.72513888889</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27524,10 +26790,8 @@
           <t>3863042663</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:23:51</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44189.72489583334</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27596,10 +26860,8 @@
           <t>3863037825</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:22:34</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44189.72400462963</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27671,10 +26933,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:22:30</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44189.72395833334</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27742,10 +27002,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:21:48</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44189.72347222222</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27813,10 +27071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:21:29</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44189.72325231481</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27884,10 +27140,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:20:33</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44189.72260416667</v>
       </c>
       <c r="I382" t="n">
         <v>50</v>
@@ -27963,10 +27217,8 @@
           <t>3863032508</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:20:24</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44189.7225</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28034,10 +27286,8 @@
           <t>3862716708</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:20:23</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44189.72248842593</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28109,10 +27359,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:19:57</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44189.7221875</v>
       </c>
       <c r="I385" t="n">
         <v>10</v>
@@ -28188,10 +27436,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:19:16</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44189.72171296296</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28267,10 +27513,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:18:17</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44189.72103009259</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28342,10 +27586,8 @@
           <t>3863020703</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:16:16</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44189.71962962963</v>
       </c>
       <c r="I388" t="n">
         <v>2</v>
@@ -28421,10 +27663,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:15:50</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44189.7193287037</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28492,10 +27732,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:15:11</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44189.71887731482</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28567,10 +27805,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:15:03</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44189.71878472222</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28638,10 +27874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:13:40</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44189.71782407408</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28709,10 +27943,8 @@
           <t>3862651588</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:11:38</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44189.71641203704</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28797,10 +28029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:10:28</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44189.71560185185</v>
       </c>
       <c r="I394" t="n">
         <v>325</v>
@@ -28860,10 +28090,8 @@
           <t>3863001253</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:10:22</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44189.7155324074</v>
       </c>
       <c r="I395" t="n">
         <v>34</v>
@@ -28931,10 +28159,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:08:01</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44189.71390046296</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29002,10 +28228,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:05:24</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44189.71208333333</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29081,10 +28305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:03:48</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44189.71097222222</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29160,10 +28382,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:03:20</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44189.71064814815</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29240,10 +28460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:03:16</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44189.71060185185</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29311,10 +28529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:03:04</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44189.71046296296</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29390,10 +28606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:01:10</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44189.70914351852</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29457,10 +28671,8 @@
           <t>3862967186</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:01:05</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44189.70908564814</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29528,10 +28740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-12-24 17:00:45</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44189.70885416667</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29595,10 +28805,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:59:59</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44189.70832175926</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29666,10 +28874,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:58:50</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44189.70752314815</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29741,10 +28947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:55:16</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44189.70504629629</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -29804,10 +29008,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:53:59</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44189.70415509259</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29883,10 +29085,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:53:50</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44189.70405092592</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -29966,10 +29166,8 @@
           <t>3862943529</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:53:46</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44189.70400462963</v>
       </c>
       <c r="I410" t="n">
         <v>15</v>
@@ -30041,10 +29239,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:52:49</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44189.70334490741</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30120,10 +29316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:52:22</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44189.70303240741</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30201,10 +29395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:52:18</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44189.70298611111</v>
       </c>
       <c r="I413" t="n">
         <v>7</v>
@@ -30272,10 +29464,8 @@
           <t>3862887706</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:50:18</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44189.70159722222</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30347,10 +29537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:49:26</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44189.70099537037</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30418,10 +29606,8 @@
           <t>3862651588</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:49:21</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44189.7009375</v>
       </c>
       <c r="I416" t="n">
         <v>3</v>
@@ -30485,10 +29671,8 @@
           <t>3862928625</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:48:51</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44189.70059027777</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30560,10 +29744,8 @@
           <t>3862887706</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:47:44</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44189.69981481481</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30639,10 +29821,8 @@
           <t>3862575846</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:47:11</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44189.69943287037</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30710,10 +29890,8 @@
           <t>3862645945</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:42:45</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44189.69635416667</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -30785,10 +29963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:39:13</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44189.69390046296</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30852,10 +30028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:38:34</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44189.69344907408</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30915,10 +30089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:36:43</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44189.69216435185</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -30984,10 +30156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:36:04</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44189.69171296297</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31055,10 +30225,8 @@
           <t>3862892335</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:35:55</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44189.6916087963</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31130,10 +30298,8 @@
           <t>3862896093</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:35:32</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44189.6913425926</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31201,10 +30367,8 @@
           <t>3862887706</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:34:24</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44189.69055555556</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31276,10 +30440,8 @@
           <t>3862890683</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:33:58</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44189.69025462963</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31351,10 +30513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:32:52</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44189.68949074074</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31430,10 +30590,8 @@
           <t>3862575846</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:32:14</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44189.68905092592</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31503,10 +30661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:31:59</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44189.68887731482</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31583,10 +30739,8 @@
           <t>3862874715</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:30:55</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44189.68813657408</v>
       </c>
       <c r="I432" t="n">
         <v>2</v>
@@ -31662,10 +30816,8 @@
           <t>3862645945</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:29:37</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44189.6872337963</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31741,10 +30893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:28:48</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44189.68666666667</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31816,10 +30966,8 @@
           <t>3862869211</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:27:14</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44189.68557870371</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31895,10 +31043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:26:54</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44189.68534722222</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31966,10 +31112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:26:28</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44189.6850462963</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32036,10 +31180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:26:00</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44189.68472222222</v>
       </c>
       <c r="I438" t="n">
         <v>90</v>
@@ -32103,10 +31245,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:25:50</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44189.68460648148</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32170,10 +31310,8 @@
           <t>3862696187</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:25:43</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44189.68452546297</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32249,10 +31387,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:25:19</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44189.68424768518</v>
       </c>
       <c r="I441" t="n">
         <v>2</v>
@@ -32316,10 +31452,8 @@
           <t>3862859895</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:25:04</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44189.68407407407</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32387,10 +31521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:24:54</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44189.68395833333</v>
       </c>
       <c r="I443" t="n">
         <v>4</v>
@@ -32458,10 +31590,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:21:00</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44189.68125</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32525,10 +31655,8 @@
           <t>3862856035</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:20:26</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44189.68085648148</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32592,10 +31720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:19:39</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44189.6803125</v>
       </c>
       <c r="I446" t="n">
         <v>2</v>
@@ -32667,10 +31793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:19:12</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44189.68</v>
       </c>
       <c r="I447" t="n">
         <v>10</v>
@@ -32745,10 +31869,8 @@
           <t>3862848539</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:18:57</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44189.67982638889</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32824,10 +31946,8 @@
           <t>3862651098</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:18:30</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44189.67951388889</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32895,10 +32015,8 @@
           <t>3862847596</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:17:48</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44189.67902777778</v>
       </c>
       <c r="I450" t="n">
         <v>25</v>
@@ -32970,10 +32088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:17:25</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44189.67876157408</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33037,10 +32153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:16:50</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44189.67835648148</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33104,10 +32218,8 @@
           <t>3862839980</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:15:53</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44189.67769675926</v>
       </c>
       <c r="I453" t="n">
         <v>70</v>
@@ -33179,10 +32291,8 @@
           <t>3862834974</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:14:34</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44189.6767824074</v>
       </c>
       <c r="I454" t="n">
         <v>2</v>
@@ -33250,10 +32360,8 @@
           <t>3862832174</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:11:12</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44189.67444444444</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33321,10 +32429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:10:41</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44189.67408564815</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33396,10 +32502,8 @@
           <t>3862827743</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:10:17</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44189.67380787037</v>
       </c>
       <c r="I457" t="n">
         <v>6</v>
@@ -33463,10 +32567,8 @@
           <t>3862824636</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:09:34</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44189.67331018519</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33530,10 +32632,8 @@
           <t>3862674621</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:09:12</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44189.67305555556</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33597,10 +32697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:08:28</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44189.67254629629</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33664,10 +32762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:08:23</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44189.67248842592</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33735,10 +32831,8 @@
           <t>3862823372</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:08:08</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44189.67231481482</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33810,10 +32904,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:07:26</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44189.6718287037</v>
       </c>
       <c r="I463" t="n">
         <v>2</v>
@@ -33890,10 +32982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:07:11</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44189.67165509259</v>
       </c>
       <c r="I464" t="n">
         <v>5</v>
@@ -33969,10 +33059,8 @@
           <t>3862822255</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:06:46</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44189.67136574074</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34044,10 +33132,8 @@
           <t>3862818347</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:06:38</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44189.67127314815</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34119,10 +33205,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:05:28</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44189.67046296296</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34194,10 +33278,8 @@
           <t>3862820274</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:04:21</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44189.6696875</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34265,10 +33347,8 @@
           <t>3862811830</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:03:16</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44189.66893518518</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34340,10 +33420,8 @@
           <t>3862696187</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:03:11</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44189.66887731481</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34411,10 +33489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:02:54</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44189.66868055556</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34482,10 +33558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:02:08</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44189.66814814815</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34555,10 +33629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:01:57</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44189.66802083333</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -34622,10 +33694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:01:54</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44189.66798611111</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34693,10 +33763,8 @@
           <t>3862784308</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:00:37</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44189.66709490741</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34764,10 +33832,8 @@
           <t>3862799557</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-12-24 16:00:31</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44189.66702546296</v>
       </c>
       <c r="I476" t="n">
         <v>17</v>
@@ -34839,10 +33905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:59:38</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44189.66641203704</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -34910,10 +33974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:59:31</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44189.66633101852</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -34989,10 +34051,8 @@
           <t>3862797489</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:58:05</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44189.66533564815</v>
       </c>
       <c r="I479" t="n">
         <v>73</v>
@@ -35057,10 +34117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:56:05</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44189.66394675926</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35132,10 +34190,8 @@
           <t>3862792592</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:54:59</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44189.66318287037</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35199,10 +34255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:54:56</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44189.66314814815</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35270,10 +34324,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:54:30</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44189.66284722222</v>
       </c>
       <c r="I483" t="n">
         <v>10</v>
@@ -35337,10 +34389,8 @@
           <t>3862784308</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:54:10</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44189.66261574074</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35409,10 +34459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:53:05</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44189.66186342593</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35485,10 +34533,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:51:55</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44189.66105324074</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35556,10 +34602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:49:29</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44189.65936342593</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35642,10 +34686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:46:09</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44189.65704861111</v>
       </c>
       <c r="I488" t="n">
         <v>2</v>
@@ -35717,10 +34759,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:44:56</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44189.6562037037</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35792,10 +34832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:44:55</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44189.65619212963</v>
       </c>
       <c r="I490" t="n">
         <v>7</v>
@@ -35871,10 +34909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:44:53</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44189.65616898148</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -35934,10 +34970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:44:52</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44189.65615740741</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36013,10 +35047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:44:33</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44189.6559375</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36088,10 +35120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:44:10</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44189.6556712963</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36159,10 +35189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:44:02</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44189.65557870371</v>
       </c>
       <c r="I495" t="n">
         <v>77</v>
@@ -36226,10 +35254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:43:27</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44189.65517361111</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36305,10 +35331,8 @@
           <t>3862716708</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:41:18</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44189.65368055556</v>
       </c>
       <c r="I497" t="n">
         <v>14</v>
@@ -36377,10 +35401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:41:12</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44189.65361111111</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36444,10 +35466,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:40:51</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44189.65336805556</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36523,10 +35543,8 @@
           <t>3862760114</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:39:45</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44189.65260416667</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36590,10 +35608,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:39:34</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44189.65247685185</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36669,10 +35685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:39:28</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44189.6524074074</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36745,10 +35759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:38:38</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44189.6518287037</v>
       </c>
       <c r="I503" t="n">
         <v>483</v>
@@ -36820,10 +35832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:38:29</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44189.65172453703</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -36899,10 +35909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:38:17</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44189.65158564815</v>
       </c>
       <c r="I505" t="n">
         <v>114</v>
@@ -36978,10 +35986,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:36:32</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44189.65037037037</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37062,10 +36068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:34:41</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44189.64908564815</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37133,10 +36137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:33:57</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44189.64857638889</v>
       </c>
       <c r="I508" t="n">
         <v>725</v>
@@ -37208,10 +36210,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:33:38</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44189.64835648148</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37283,10 +36283,8 @@
           <t>3862737057</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:33:02</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44189.64793981481</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37354,10 +36352,8 @@
           <t>3862737013</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:32:59</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44189.64790509259</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37421,10 +36417,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:31:11</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44189.64665509259</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37500,10 +36494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:30:38</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44189.64627314815</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -37575,10 +36567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:29:45</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44189.64565972222</v>
       </c>
       <c r="I514" t="n">
         <v>4</v>
@@ -37646,10 +36636,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:29:43</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44189.64563657407</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37725,10 +36713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:28:27</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44189.64475694444</v>
       </c>
       <c r="I516" t="n">
         <v>16</v>
@@ -37792,10 +36778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:28:24</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44189.64472222222</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -37860,10 +36844,8 @@
           <t>3862719741</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:27:21</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44189.64399305556</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -37935,10 +36917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:27:16</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44189.64393518519</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38006,10 +36986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:27:01</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44189.64376157407</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38077,10 +37055,8 @@
           <t>3862683405</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:26:43</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44189.64355324074</v>
       </c>
       <c r="I521" t="n">
         <v>4</v>
@@ -38149,10 +37125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:26:19</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44189.64327546296</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38224,10 +37198,8 @@
           <t>3862726323</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:26:15</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44189.64322916666</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38303,10 +37275,8 @@
           <t>3862721489</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:26:10</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44189.64317129629</v>
       </c>
       <c r="I524" t="n">
         <v>4</v>
@@ -38370,10 +37340,8 @@
           <t>3862721468</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:26:08</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44189.64314814815</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38441,10 +37409,8 @@
           <t>3862726076</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:25:57</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44189.64302083333</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38504,10 +37470,8 @@
           <t>3862721253</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:25:54</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44189.64298611111</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38587,10 +37551,8 @@
           <t>3862721005</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:25:36</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44189.64277777778</v>
       </c>
       <c r="I528" t="n">
         <v>10</v>
@@ -38662,10 +37624,8 @@
           <t>3862720821</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:25:22</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44189.64261574074</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -38729,10 +37689,8 @@
           <t>3862725213</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:24:49</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44189.64223379629</v>
       </c>
       <c r="I530" t="n">
         <v>2</v>
@@ -38808,10 +37766,8 @@
           <t>3862720010</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:24:25</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44189.64195601852</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -38884,10 +37840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:24:11</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44189.64179398148</v>
       </c>
       <c r="I532" t="n">
         <v>180</v>
@@ -38947,10 +37901,8 @@
           <t>3862683405</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:24:00</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44189.64166666667</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39018,10 +37970,8 @@
           <t>3862714454</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:23:52</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44189.64157407408</v>
       </c>
       <c r="I534" t="n">
         <v>10</v>
@@ -39097,10 +38047,8 @@
           <t>3862716708</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:23:41</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44189.64144675926</v>
       </c>
       <c r="I535" t="n">
         <v>6</v>
@@ -39176,10 +38124,8 @@
           <t>3862709259</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:23:32</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44189.64134259259</v>
       </c>
       <c r="I536" t="n">
         <v>10</v>
@@ -39255,10 +38201,8 @@
           <t>3862709155</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:23:24</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44189.64125</v>
       </c>
       <c r="I537" t="n">
         <v>5</v>
@@ -39330,10 +38274,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:23:18</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44189.64118055555</v>
       </c>
       <c r="I538" t="n">
         <v>8</v>
@@ -39413,10 +38355,8 @@
           <t>3862713811</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:23:04</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44189.64101851852</v>
       </c>
       <c r="I539" t="n">
         <v>7</v>
@@ -39492,10 +38432,8 @@
           <t>3862713530</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:22:42</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44189.64076388889</v>
       </c>
       <c r="I540" t="n">
         <v>6</v>
@@ -39567,10 +38505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:22:32</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44189.64064814815</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39638,10 +38574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:22:21</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44189.64052083333</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -39713,10 +38647,8 @@
           <t>3862683405</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:22:11</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44189.64040509259</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39784,10 +38716,8 @@
           <t>3862693754</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:21:59</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44189.64026620371</v>
       </c>
       <c r="I544" t="n">
         <v>3</v>
@@ -39863,10 +38793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:21:34</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44189.63997685185</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39926,10 +38854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:21:06</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44189.63965277778</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40005,10 +38931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:20:55</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44189.63952546296</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40072,10 +38996,8 @@
           <t>3862647558</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:20:42</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44189.639375</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40151,10 +39073,8 @@
           <t>3862706495</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:20:10</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44189.63900462963</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40226,10 +39146,8 @@
           <t>3862705946</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:19:27</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44189.63850694444</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40297,10 +39215,8 @@
           <t>3862693787</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:16:43</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44189.6366087963</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40368,10 +39284,8 @@
           <t>3862693754</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:16:41</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44189.63658564815</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40435,10 +39349,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:16:17</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44189.63630787037</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40502,10 +39414,8 @@
           <t>3862700069</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:15:46</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44189.63594907407</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40573,10 +39483,8 @@
           <t>3862692921</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:15:38</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44189.63585648148</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40648,10 +39556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:15:03</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44189.63545138889</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40727,10 +39633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:14:34</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44189.63511574074</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40794,10 +39698,8 @@
           <t>3862696621</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:14:05</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44189.63478009259</v>
       </c>
       <c r="I558" t="n">
         <v>26</v>
@@ -40861,10 +39763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:13:47</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44189.63457175926</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -40936,10 +39836,8 @@
           <t>3862696187</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:13:34</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44189.63442129629</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41015,10 +39913,8 @@
           <t>3862687905</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:13:10</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44189.63414351852</v>
       </c>
       <c r="I561" t="n">
         <v>52</v>
@@ -41082,10 +39978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:13:01</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44189.63403935185</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41149,10 +40043,8 @@
           <t>3862683405</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:12:54</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44189.63395833333</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41216,10 +40108,8 @@
           <t>3862575846</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:12:52</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44189.63393518519</v>
       </c>
       <c r="I564" t="n">
         <v>3</v>
@@ -41283,10 +40173,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:12:51</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44189.63392361111</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41362,10 +40250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:12:46</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44189.63386574074</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41429,10 +40315,8 @@
           <t>3862690057</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:12:06</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44189.63340277778</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41496,10 +40380,8 @@
           <t>3862676301</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:11:36</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44189.63305555555</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41567,10 +40449,8 @@
           <t>3862679609</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:11:34</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44189.63303240741</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -41667,10 +40547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:11:06</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44189.63270833333</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -41746,10 +40624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:11:03</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44189.63267361111</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41809,10 +40685,8 @@
           <t>3862683405</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:10:08</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44189.63203703704</v>
       </c>
       <c r="I572" t="n">
         <v>4</v>
@@ -41880,10 +40754,8 @@
           <t>3862674621</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:09:19</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44189.63146990741</v>
       </c>
       <c r="I573" t="n">
         <v>84</v>
@@ -41953,10 +40825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:08:22</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44189.63081018518</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42032,10 +40902,8 @@
           <t>3862673573</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:08:02</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44189.63057870371</v>
       </c>
       <c r="I575" t="n">
         <v>47</v>
@@ -42111,10 +40979,8 @@
           <t>3862681636</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:08:01</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44189.63056712963</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42178,10 +41044,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:07:41</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44189.63033564815</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42245,10 +41109,8 @@
           <t>3862676301</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:07:28</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44189.63018518518</v>
       </c>
       <c r="I578" t="n">
         <v>200</v>
@@ -42312,10 +41174,8 @@
           <t>3862676146</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:07:17</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44189.63005787037</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42383,10 +41243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:06:46</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44189.62969907407</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42454,10 +41312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:05:12</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44189.62861111111</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42534,10 +41390,8 @@
           <t>3862664328</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:05:03</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44189.62850694444</v>
       </c>
       <c r="I582" t="n">
         <v>3</v>
@@ -42613,10 +41467,8 @@
           <t>3862575846</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:04:18</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44189.62798611111</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42684,10 +41536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:03:59</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44189.6277662037</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42751,10 +41601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:03:56</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44189.62773148148</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42831,10 +41679,8 @@
           <t>3862663341</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:03:53</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44189.62769675926</v>
       </c>
       <c r="I586" t="n">
         <v>7</v>
@@ -42910,10 +41756,8 @@
           <t>3862662401</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:02:49</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44189.62695601852</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -42977,10 +41821,8 @@
           <t>3862667352</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:02:44</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44189.62689814815</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43067,10 +41909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:02:02</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44189.62641203704</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43146,10 +41986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:01:42</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44189.62618055556</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43221,10 +42059,8 @@
           <t>3862657733</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:00:53</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44189.62561342592</v>
       </c>
       <c r="I591" t="n">
         <v>4</v>
@@ -43300,10 +42136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-12-24 15:00:20</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44189.62523148148</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43371,10 +42205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:57:48</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44189.62347222222</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43442,10 +42274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:57:44</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44189.62342592593</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43514,10 +42344,8 @@
           <t>3862653025</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:57:32</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44189.62328703704</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43593,10 +42421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:57:28</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44189.62324074074</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43668,10 +42494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:57:14</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44189.62307870371</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -43739,10 +42563,8 @@
           <t>3862647558</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:56:55</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44189.6228587963</v>
       </c>
       <c r="I598" t="n">
         <v>7</v>
@@ -43818,10 +42640,8 @@
           <t>3862647530</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:56:53</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44189.62283564815</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43890,10 +42710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:56:50</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44189.62280092593</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -43961,10 +42779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:56:12</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44189.62236111111</v>
       </c>
       <c r="I601" t="n">
         <v>65</v>
@@ -44032,10 +42848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:56:06</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44189.62229166667</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44099,10 +42913,8 @@
           <t>3862651588</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:55:51</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44189.62211805556</v>
       </c>
       <c r="I603" t="n">
         <v>5</v>
@@ -44178,10 +42990,8 @@
           <t>3862651098</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:55:16</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44189.62171296297</v>
       </c>
       <c r="I604" t="n">
         <v>12</v>
@@ -44245,10 +43055,8 @@
           <t>3862645945</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:54:52</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44189.62143518519</v>
       </c>
       <c r="I605" t="n">
         <v>6</v>
@@ -44318,10 +43126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:54:49</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44189.62140046297</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44389,10 +43195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:53:47</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44189.62068287037</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44460,10 +43264,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:53:32</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44189.62050925926</v>
       </c>
       <c r="I608" t="n">
         <v>5</v>
@@ -44531,10 +43333,8 @@
           <t>3862633721</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:52:08</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44189.61953703704</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44604,10 +43404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:51:01</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44189.61876157407</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44671,10 +43469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:50:55</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44189.61869212963</v>
       </c>
       <c r="I611" t="n">
         <v>2</v>
@@ -44746,10 +43542,8 @@
           <t>3862637063</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:50:23</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44189.61832175926</v>
       </c>
       <c r="I612" t="n">
         <v>5</v>
@@ -44826,10 +43620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:49:49</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44189.61792824074</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -44901,10 +43693,8 @@
           <t>3862631077</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:49:03</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44189.61739583333</v>
       </c>
       <c r="I614" t="n">
         <v>2</v>
@@ -44968,10 +43758,8 @@
           <t>3862575846</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:47:01</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44189.6159837963</v>
       </c>
       <c r="I615" t="n">
         <v>12</v>
@@ -45041,10 +43829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:46:09</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44189.61538194444</v>
       </c>
       <c r="I616" t="n">
         <v>50</v>
@@ -45112,10 +43898,8 @@
           <t>3862618615</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:46:03</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44189.6153125</v>
       </c>
       <c r="I617" t="n">
         <v>6</v>
@@ -45191,10 +43975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:44:08</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44189.61398148148</v>
       </c>
       <c r="I618" t="n">
         <v>28</v>
@@ -45266,10 +44048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:43:49</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44189.61376157407</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45337,10 +44117,8 @@
           <t>3862616462</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:43:25</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44189.6134837963</v>
       </c>
       <c r="I620" t="n">
         <v>46</v>
@@ -45404,10 +44182,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:43:00</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44189.61319444444</v>
       </c>
       <c r="I621" t="n">
         <v>2</v>
@@ -45483,10 +44259,8 @@
           <t>3862546911</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:42:53</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44189.61311342593</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45550,10 +44324,8 @@
           <t>3862615795</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:42:37</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44189.61292824074</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -45621,10 +44393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:42:22</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44189.61275462963</v>
       </c>
       <c r="I624" t="n">
         <v>670</v>
@@ -45688,10 +44458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:41:33</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44189.6121875</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45751,10 +44519,8 @@
           <t>3862604455</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:41:00</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44189.61180555556</v>
       </c>
       <c r="I626" t="n">
         <v>7</v>
@@ -45828,10 +44594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:40:46</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44189.61164351852</v>
       </c>
       <c r="I627" t="n">
         <v>18</v>
@@ -45895,10 +44659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:40:39</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44189.6115625</v>
       </c>
       <c r="I628" t="n">
         <v>51</v>
@@ -45970,10 +44732,8 @@
           <t>3862603957</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:40:24</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44189.61138888889</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46047,10 +44807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:40:23</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44189.61137731482</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46126,10 +44884,8 @@
           <t>3862610594</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:40:18</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44189.61131944445</v>
       </c>
       <c r="I631" t="n">
         <v>23</v>
@@ -46201,10 +44957,8 @@
           <t>3862603067</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:39:21</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44189.61065972222</v>
       </c>
       <c r="I632" t="n">
         <v>5</v>
@@ -46280,10 +45034,8 @@
           <t>3862607560</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:39:15</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44189.61059027778</v>
       </c>
       <c r="I633" t="n">
         <v>4</v>
@@ -46360,10 +45112,8 @@
           <t>3862607253</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:38:52</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44189.61032407408</v>
       </c>
       <c r="I634" t="n">
         <v>6</v>
@@ -46435,10 +45185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:38:32</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44189.61009259259</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46514,10 +45262,8 @@
           <t>3862602266</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:38:26</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44189.61002314815</v>
       </c>
       <c r="I636" t="n">
         <v>2</v>
@@ -46589,10 +45335,8 @@
           <t>3862598870</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:38:13</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44189.60987268519</v>
       </c>
       <c r="I637" t="n">
         <v>6</v>
@@ -46660,10 +45404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:38:06</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44189.60979166667</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46735,10 +45477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:37:53</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44189.6096412037</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46814,10 +45554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:37:50</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44189.60960648148</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -46889,10 +45627,8 @@
           <t>3862605845</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:37:07</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44189.6091087963</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -46960,10 +45696,8 @@
           <t>3862605020</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:36:12</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44189.60847222222</v>
       </c>
       <c r="I642" t="n">
         <v>47</v>
@@ -47039,10 +45773,8 @@
           <t>3862600374</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:36:08</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44189.60842592592</v>
       </c>
       <c r="I643" t="n">
         <v>37</v>
@@ -47118,10 +45850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:35:50</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44189.60821759259</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47197,10 +45927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:35:12</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44189.60777777778</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47268,10 +45996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:34:55</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44189.60758101852</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47331,10 +46057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:34:54</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44189.60756944444</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47406,10 +46130,8 @@
           <t>3862589109</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:34:35</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44189.60734953704</v>
       </c>
       <c r="I648" t="n">
         <v>4</v>
@@ -47473,10 +46195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:34:29</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44189.60728009259</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47536,10 +46256,8 @@
           <t>3862595816</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:34:23</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44189.60721064815</v>
       </c>
       <c r="I650" t="n">
         <v>2</v>
@@ -47611,10 +46329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:34:16</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44189.60712962963</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47682,10 +46398,8 @@
           <t>3862588820</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:34:15</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44189.60711805556</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -47761,10 +46475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:33:39</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44189.60670138889</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -47828,10 +46540,8 @@
           <t>3862588247</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:33:36</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44189.60666666667</v>
       </c>
       <c r="I654" t="n">
         <v>25</v>
@@ -47895,10 +46605,8 @@
           <t>3862592736</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:33:33</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44189.60663194444</v>
       </c>
       <c r="I655" t="n">
         <v>2</v>
@@ -47970,10 +46678,8 @@
           <t>3862588157</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:33:29</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44189.60658564815</v>
       </c>
       <c r="I656" t="n">
         <v>3</v>
@@ -48057,10 +46763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:32:37</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44189.6059837963</v>
       </c>
       <c r="I657" t="n">
         <v>11</v>
@@ -48135,10 +46839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:32:14</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44189.6057175926</v>
       </c>
       <c r="I658" t="n">
         <v>2</v>
@@ -48202,10 +46904,8 @@
           <t>3862591498</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:32:06</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44189.605625</v>
       </c>
       <c r="I659" t="n">
         <v>14</v>
@@ -48273,10 +46973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:31:21</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44189.60510416667</v>
       </c>
       <c r="I660" t="n">
         <v>1</v>
@@ -48344,10 +47042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:31:18</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44189.60506944444</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48423,10 +47119,8 @@
           <t>3862586028</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:30:58</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44189.60483796296</v>
       </c>
       <c r="I662" t="n">
         <v>4</v>
@@ -48491,10 +47185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:30:49</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44189.6047337963</v>
       </c>
       <c r="I663" t="n">
         <v>18</v>
@@ -48562,10 +47254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:30:31</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44189.60452546296</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -48633,10 +47323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:30:31</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44189.60452546296</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48713,10 +47401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:30:27</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44189.60447916666</v>
       </c>
       <c r="I666" t="n">
         <v>41</v>
@@ -48788,10 +47474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:30:21</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44189.60440972223</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -48867,10 +47551,8 @@
           <t>3862582357</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:30:17</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44189.60436342593</v>
       </c>
       <c r="I668" t="n">
         <v>4</v>
@@ -48938,10 +47620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:29:51</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44189.6040625</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49005,10 +47685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:29:39</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44189.60392361111</v>
       </c>
       <c r="I670" t="n">
         <v>5</v>
@@ -49084,10 +47762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:29:32</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44189.60384259259</v>
       </c>
       <c r="I671" t="n">
         <v>5</v>
@@ -49151,10 +47827,8 @@
           <t>3862574141</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:28:44</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44189.60328703704</v>
       </c>
       <c r="I672" t="n">
         <v>4</v>
@@ -49230,10 +47904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:28:35</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44189.60318287037</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49297,10 +47969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:27:50</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44189.60266203704</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49364,10 +48034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:27:31</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44189.60244212963</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49435,10 +48103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:26:49</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44189.60195601852</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49506,10 +48172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:26:40</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44189.60185185185</v>
       </c>
       <c r="I677" t="n">
         <v>1</v>
@@ -49585,10 +48249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:26:38</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44189.6018287037</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49671,10 +48333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:26:25</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44189.60167824074</v>
       </c>
       <c r="I679" t="n">
         <v>939</v>
@@ -49750,10 +48410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:26:24</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44189.60166666667</v>
       </c>
       <c r="I680" t="n">
         <v>1</v>
@@ -49821,10 +48479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:26:23</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44189.60165509259</v>
       </c>
       <c r="I681" t="n">
         <v>128</v>
@@ -49884,10 +48540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:25:53</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44189.60130787037</v>
       </c>
       <c r="I682" t="n">
         <v>310</v>
@@ -49963,10 +48617,8 @@
           <t>3862575981</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:25:43</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44189.60119212963</v>
       </c>
       <c r="I683" t="n">
         <v>2</v>
@@ -50034,10 +48686,8 @@
           <t>3862575846</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:25:34</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44189.60108796296</v>
       </c>
       <c r="I684" t="n">
         <v>48</v>
@@ -50103,10 +48753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:25:16</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44189.60087962963</v>
       </c>
       <c r="I685" t="n">
         <v>164</v>
@@ -50182,10 +48830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:25:09</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44189.60079861111</v>
       </c>
       <c r="I686" t="n">
         <v>4</v>
@@ -50253,10 +48899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:25:08</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44189.60078703704</v>
       </c>
       <c r="I687" t="n">
         <v>55</v>
@@ -50320,10 +48964,8 @@
           <t>3862546911</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:24:58</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44189.6006712963</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50391,10 +49033,8 @@
           <t>3862546911</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:24:51</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44189.60059027778</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50458,10 +49098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:24:49</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44189.60056712963</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -50525,10 +49163,8 @@
           <t>3862575050</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:24:38</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44189.60043981481</v>
       </c>
       <c r="I691" t="n">
         <v>2</v>
@@ -50604,10 +49240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:24:22</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44189.60025462963</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -50672,10 +49306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:23:47</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44189.59984953704</v>
       </c>
       <c r="I693" t="n">
         <v>1</v>
@@ -50764,10 +49396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:23:24</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44189.59958333334</v>
       </c>
       <c r="I694" t="n">
         <v>54</v>
@@ -50831,10 +49461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:23:15</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44189.59947916667</v>
       </c>
       <c r="I695" t="n">
         <v>2604</v>
@@ -50902,10 +49530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:23:15</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44189.59947916667</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -50973,10 +49599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:22:50</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44189.59918981481</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51044,10 +49668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:22:46</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44189.59914351852</v>
       </c>
       <c r="I698" t="n">
         <v>69</v>
@@ -51111,10 +49733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:22:22</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44189.59886574074</v>
       </c>
       <c r="I699" t="n">
         <v>596</v>
@@ -51183,10 +49803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:22:08</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44189.5987037037</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51260,10 +49878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:21:40</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44189.59837962963</v>
       </c>
       <c r="I701" t="n">
         <v>76</v>
@@ -51339,10 +49955,8 @@
           <t>3862561123</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:21:38</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44189.59835648148</v>
       </c>
       <c r="I702" t="n">
         <v>18</v>
@@ -51407,10 +50021,8 @@
           <t>3862557724</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:21:21</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44189.59815972222</v>
       </c>
       <c r="I703" t="n">
         <v>131</v>
@@ -51478,10 +50090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:20:38</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44189.59766203703</v>
       </c>
       <c r="I704" t="n">
         <v>4</v>
@@ -51549,10 +50159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:20:38</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44189.59766203703</v>
       </c>
       <c r="I705" t="n">
         <v>1</v>
@@ -51621,10 +50229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:20:09</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44189.59732638889</v>
       </c>
       <c r="I706" t="n">
         <v>719</v>
@@ -51700,10 +50306,8 @@
           <t>3862561123</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:20:06</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44189.59729166667</v>
       </c>
       <c r="I707" t="n">
         <v>7</v>
@@ -51763,10 +50367,8 @@
           <t>3862553095</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:19:28</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44189.59685185185</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -51830,10 +50432,8 @@
           <t>3862560462</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:19:21</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44189.59677083333</v>
       </c>
       <c r="I709" t="n">
         <v>2</v>
@@ -51897,10 +50497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:19:07</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44189.5966087963</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -51964,10 +50562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:19:00</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44189.59652777778</v>
       </c>
       <c r="I711" t="n">
         <v>232</v>
@@ -52044,10 +50640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:18:32</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44189.5962037037</v>
       </c>
       <c r="I712" t="n">
         <v>3</v>
@@ -52119,10 +50713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:18:12</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44189.59597222223</v>
       </c>
       <c r="I713" t="n">
         <v>1</v>
@@ -52185,10 +50777,8 @@
           <t>3862552002</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:18:10</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44189.59594907407</v>
       </c>
       <c r="I714" t="n">
         <v>20</v>
@@ -52252,10 +50842,8 @@
           <t>3862551655</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:17:45</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44189.59565972222</v>
       </c>
       <c r="I715" t="n">
         <v>5</v>
@@ -52323,10 +50911,8 @@
           <t>3862551320</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:17:22</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44189.59539351852</v>
       </c>
       <c r="I716" t="n">
         <v>1</v>
@@ -52398,10 +50984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:17:10</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44189.59525462963</v>
       </c>
       <c r="I717" t="n">
         <v>60</v>
@@ -52465,10 +51049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:17:03</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44189.59517361111</v>
       </c>
       <c r="I718" t="n">
         <v>12</v>
@@ -52541,10 +51123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:16:35</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44189.59484953704</v>
       </c>
       <c r="I719" t="n">
         <v>834</v>
@@ -52612,10 +51192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:16:35</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44189.59484953704</v>
       </c>
       <c r="I720" t="n">
         <v>32</v>
@@ -52679,10 +51257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:16:20</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44189.59467592592</v>
       </c>
       <c r="I721" t="n">
         <v>40</v>
@@ -52746,10 +51322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:16:16</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44189.59462962963</v>
       </c>
       <c r="I722" t="n">
         <v>2</v>
@@ -52813,10 +51387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:16:08</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44189.59453703704</v>
       </c>
       <c r="I723" t="n">
         <v>939</v>
@@ -52881,10 +51453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:16:03</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44189.59447916667</v>
       </c>
       <c r="I724" t="n">
         <v>224</v>
@@ -52956,10 +51526,8 @@
           <t>3862546911</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:15:11</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44189.59387731482</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
@@ -53027,10 +51595,8 @@
           <t>3862546800</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:15:04</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44189.5937962963</v>
       </c>
       <c r="I726" t="n">
         <v>6</v>
@@ -53094,10 +51660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:15:00</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44189.59375</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -53165,10 +51729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:14:33</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44189.5934375</v>
       </c>
       <c r="I728" t="n">
         <v>10</v>
@@ -53240,10 +51802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:14:31</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44189.59341435185</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53311,10 +51871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:14:24</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44189.59333333333</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53386,10 +51944,8 @@
           <t>3862538329</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:47</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44189.59290509259</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -53465,10 +52021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:44</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44189.59287037037</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
@@ -53532,10 +52086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:42</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44189.59284722222</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -53603,10 +52155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:35</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44189.59276620371</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -53674,10 +52224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:35</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44189.59276620371</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -53753,10 +52301,8 @@
           <t>3862538074</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:29</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44189.59269675926</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
@@ -53832,10 +52378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:14</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44189.59252314815</v>
       </c>
       <c r="I737" t="n">
         <v>11</v>
@@ -53907,10 +52451,8 @@
           <t>3862540706</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:13:03</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44189.59239583334</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
@@ -53982,10 +52524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:12:55</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44189.59230324074</v>
       </c>
       <c r="I739" t="n">
         <v>3</v>
@@ -54053,10 +52593,8 @@
           <t>3862540203</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:12:27</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44189.59197916667</v>
       </c>
       <c r="I740" t="n">
         <v>5</v>
@@ -54132,10 +52670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:11:37</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44189.59140046296</v>
       </c>
       <c r="I741" t="n">
         <v>3</v>
@@ -54207,10 +52743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:11:14</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44189.59113425926</v>
       </c>
       <c r="I742" t="n">
         <v>376</v>
@@ -54286,10 +52820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:11:05</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44189.59103009259</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
@@ -54353,10 +52885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:11:02</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44189.59099537037</v>
       </c>
       <c r="I744" t="n">
         <v>15</v>
@@ -54416,10 +52946,8 @@
           <t>3862535898</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:10:56</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44189.59092592593</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
@@ -54487,10 +53015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:10:53</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44189.5908912037</v>
       </c>
       <c r="I746" t="n">
         <v>2</v>
@@ -54566,10 +53092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:10:31</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44189.59063657407</v>
       </c>
       <c r="I747" t="n">
         <v>48</v>
@@ -54649,10 +53173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2020-12-24 14:10:26</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44189.5905787037</v>
       </c>
       <c r="I748" t="n">
         <v>19</v>
